--- a/Molecular/twist_map.xlsx
+++ b/Molecular/twist_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/spatiotemp_genomics/Molecular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8F31EC-0858-B445-8A6E-670772E4B34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECFE799-B607-F44A-8314-7BA1A3ABB003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7AB4EB2E-9F60-A643-89E2-D769FEBAA0A6}"/>
   </bookViews>
@@ -335,24 +335,6 @@
     <t>ME_early_1_10</t>
   </si>
   <si>
-    <t>ME_early_2-1</t>
-  </si>
-  <si>
-    <t>ME_early_2-2</t>
-  </si>
-  <si>
-    <t>ME_early_2-3</t>
-  </si>
-  <si>
-    <t>ME_early_2-4</t>
-  </si>
-  <si>
-    <t>ME_early_2-5</t>
-  </si>
-  <si>
-    <t>ME_early_2-6</t>
-  </si>
-  <si>
     <t>TK_early_1_10</t>
   </si>
   <si>
@@ -518,9 +500,6 @@
     <t>CT_early_1_01</t>
   </si>
   <si>
-    <t>TC_early_1_01</t>
-  </si>
-  <si>
     <t>GW_early_1_01</t>
   </si>
   <si>
@@ -584,9 +563,6 @@
     <t>CT_early_1_02</t>
   </si>
   <si>
-    <t>TC_early_1_02</t>
-  </si>
-  <si>
     <t>GW_early_1_02</t>
   </si>
   <si>
@@ -650,9 +626,6 @@
     <t>CT_early_1_03</t>
   </si>
   <si>
-    <t>TC_early_1_03</t>
-  </si>
-  <si>
     <t>GW_early_1_03</t>
   </si>
   <si>
@@ -713,9 +686,6 @@
     <t>CT_early_1_04</t>
   </si>
   <si>
-    <t>TC_early_1_04</t>
-  </si>
-  <si>
     <t>GW_early_1_04</t>
   </si>
   <si>
@@ -779,9 +749,6 @@
     <t>CT_early_1_05</t>
   </si>
   <si>
-    <t>TC_early_1_05</t>
-  </si>
-  <si>
     <t>GW_early_1_05</t>
   </si>
   <si>
@@ -845,9 +812,6 @@
     <t>CT_early_1_06</t>
   </si>
   <si>
-    <t>TC_early_1_06</t>
-  </si>
-  <si>
     <t>GW_early_1_06</t>
   </si>
   <si>
@@ -911,9 +875,6 @@
     <t>CT_early_1_07</t>
   </si>
   <si>
-    <t>TC_early_1_07</t>
-  </si>
-  <si>
     <t>GW_early_1_07</t>
   </si>
   <si>
@@ -977,9 +938,6 @@
     <t>CT_early_1_08</t>
   </si>
   <si>
-    <t>TC_early_1_08</t>
-  </si>
-  <si>
     <t>GW_early_1_08</t>
   </si>
   <si>
@@ -1956,6 +1914,48 @@
   </si>
   <si>
     <t>index_number</t>
+  </si>
+  <si>
+    <t>ME_early_2_1</t>
+  </si>
+  <si>
+    <t>ME_early_2_2</t>
+  </si>
+  <si>
+    <t>ME_early_2_3</t>
+  </si>
+  <si>
+    <t>ME_early_2_4</t>
+  </si>
+  <si>
+    <t>ME_early_2_5</t>
+  </si>
+  <si>
+    <t>ME_early_2_6</t>
+  </si>
+  <si>
+    <t>MD_early_1_01</t>
+  </si>
+  <si>
+    <t>MD_early_1_02</t>
+  </si>
+  <si>
+    <t>MD_early_1_03</t>
+  </si>
+  <si>
+    <t>MD_early_1_04</t>
+  </si>
+  <si>
+    <t>MD_early_1_05</t>
+  </si>
+  <si>
+    <t>MD_early_1_06</t>
+  </si>
+  <si>
+    <t>MD_early_1_07</t>
+  </si>
+  <si>
+    <t>MD_early_1_08</t>
   </si>
 </sst>
 </file>
@@ -2336,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4A25FE-E21E-D648-B9EE-9609B971C6BF}">
   <dimension ref="A1:G437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146:C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2358,19 +2358,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -2390,10 +2390,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2404,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2413,10 +2413,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2427,7 +2427,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2436,10 +2436,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2450,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2459,10 +2459,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2473,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -2482,10 +2482,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2496,7 +2496,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -2505,10 +2505,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2519,7 +2519,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -2528,10 +2528,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2542,7 +2542,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -2551,10 +2551,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2565,7 +2565,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -2574,10 +2574,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2588,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -2597,10 +2597,10 @@
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2611,7 +2611,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>12</v>
@@ -2620,10 +2620,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2634,7 +2634,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -2643,10 +2643,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2657,7 +2657,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
@@ -2666,10 +2666,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2680,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -2689,10 +2689,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2703,7 +2703,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -2712,10 +2712,10 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2726,7 +2726,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>17</v>
@@ -2735,10 +2735,10 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2749,7 +2749,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
@@ -2758,10 +2758,10 @@
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2772,7 +2772,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>19</v>
@@ -2781,10 +2781,10 @@
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2795,7 +2795,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -2804,10 +2804,10 @@
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2818,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>21</v>
@@ -2827,10 +2827,10 @@
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2841,7 +2841,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>22</v>
@@ -2850,10 +2850,10 @@
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2864,7 +2864,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>23</v>
@@ -2873,10 +2873,10 @@
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2887,7 +2887,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>24</v>
@@ -2896,10 +2896,10 @@
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2910,7 +2910,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>25</v>
@@ -2919,10 +2919,10 @@
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2933,7 +2933,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>26</v>
@@ -2942,10 +2942,10 @@
         <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2956,7 +2956,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>27</v>
@@ -2965,10 +2965,10 @@
         <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2979,7 +2979,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>28</v>
@@ -2988,10 +2988,10 @@
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3002,7 +3002,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>29</v>
@@ -3011,10 +3011,10 @@
         <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3025,7 +3025,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>30</v>
@@ -3034,10 +3034,10 @@
         <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3048,7 +3048,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>31</v>
@@ -3057,10 +3057,10 @@
         <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3071,7 +3071,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>32</v>
@@ -3080,10 +3080,10 @@
         <v>6</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3094,7 +3094,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>33</v>
@@ -3103,10 +3103,10 @@
         <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3117,7 +3117,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>34</v>
@@ -3126,10 +3126,10 @@
         <v>6</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3140,7 +3140,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>35</v>
@@ -3149,10 +3149,10 @@
         <v>6</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3163,7 +3163,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>36</v>
@@ -3172,10 +3172,10 @@
         <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3186,7 +3186,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>37</v>
@@ -3195,10 +3195,10 @@
         <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3209,7 +3209,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
@@ -3218,10 +3218,10 @@
         <v>6</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3232,7 +3232,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>39</v>
@@ -3241,10 +3241,10 @@
         <v>6</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3255,7 +3255,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>40</v>
@@ -3264,10 +3264,10 @@
         <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3278,7 +3278,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>41</v>
@@ -3287,10 +3287,10 @@
         <v>6</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3301,7 +3301,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>42</v>
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3324,7 +3324,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>43</v>
@@ -3333,10 +3333,10 @@
         <v>6</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3347,7 +3347,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>44</v>
@@ -3356,10 +3356,10 @@
         <v>6</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3370,7 +3370,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>45</v>
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3393,7 +3393,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>46</v>
@@ -3402,10 +3402,10 @@
         <v>6</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3416,7 +3416,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>47</v>
@@ -3425,10 +3425,10 @@
         <v>6</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3439,7 +3439,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>48</v>
@@ -3448,10 +3448,10 @@
         <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3462,7 +3462,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>49</v>
@@ -3471,10 +3471,10 @@
         <v>6</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3485,7 +3485,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>50</v>
@@ -3494,10 +3494,10 @@
         <v>6</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3508,7 +3508,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>51</v>
@@ -3517,10 +3517,10 @@
         <v>6</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3531,7 +3531,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>52</v>
@@ -3540,10 +3540,10 @@
         <v>6</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3554,7 +3554,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>53</v>
@@ -3563,10 +3563,10 @@
         <v>6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3577,7 +3577,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>54</v>
@@ -3586,10 +3586,10 @@
         <v>6</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3600,7 +3600,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>55</v>
@@ -3609,10 +3609,10 @@
         <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3623,7 +3623,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>56</v>
@@ -3632,10 +3632,10 @@
         <v>6</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3646,7 +3646,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>57</v>
@@ -3655,10 +3655,10 @@
         <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3669,7 +3669,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>58</v>
@@ -3678,10 +3678,10 @@
         <v>6</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3692,7 +3692,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>59</v>
@@ -3701,10 +3701,10 @@
         <v>6</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3715,7 +3715,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>60</v>
@@ -3724,10 +3724,10 @@
         <v>6</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3738,7 +3738,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>61</v>
@@ -3747,10 +3747,10 @@
         <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3761,7 +3761,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>62</v>
@@ -3770,10 +3770,10 @@
         <v>6</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3784,7 +3784,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>63</v>
@@ -3793,10 +3793,10 @@
         <v>6</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3807,7 +3807,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>64</v>
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3830,7 +3830,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>65</v>
@@ -3839,10 +3839,10 @@
         <v>6</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3853,7 +3853,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>66</v>
@@ -3862,10 +3862,10 @@
         <v>6</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3876,7 +3876,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>67</v>
@@ -3885,10 +3885,10 @@
         <v>6</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3899,7 +3899,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>68</v>
@@ -3908,10 +3908,10 @@
         <v>6</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3922,7 +3922,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>69</v>
@@ -3931,10 +3931,10 @@
         <v>6</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3945,7 +3945,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>70</v>
@@ -3954,10 +3954,10 @@
         <v>6</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3968,7 +3968,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>71</v>
@@ -3977,10 +3977,10 @@
         <v>6</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3991,7 +3991,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>72</v>
@@ -4000,10 +4000,10 @@
         <v>6</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4014,7 +4014,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>73</v>
@@ -4023,10 +4023,10 @@
         <v>6</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4037,7 +4037,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>74</v>
@@ -4046,10 +4046,10 @@
         <v>6</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4060,7 +4060,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>75</v>
@@ -4069,10 +4069,10 @@
         <v>6</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4083,7 +4083,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>76</v>
@@ -4092,10 +4092,10 @@
         <v>6</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4106,7 +4106,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>77</v>
@@ -4115,10 +4115,10 @@
         <v>6</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4129,7 +4129,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>78</v>
@@ -4138,10 +4138,10 @@
         <v>6</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4152,7 +4152,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>79</v>
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4175,7 +4175,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>80</v>
@@ -4184,10 +4184,10 @@
         <v>6</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4198,7 +4198,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>81</v>
@@ -4207,10 +4207,10 @@
         <v>6</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4221,7 +4221,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>82</v>
@@ -4230,10 +4230,10 @@
         <v>6</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4244,7 +4244,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>83</v>
@@ -4253,10 +4253,10 @@
         <v>6</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4267,7 +4267,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>84</v>
@@ -4276,10 +4276,10 @@
         <v>6</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4290,7 +4290,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>85</v>
@@ -4299,10 +4299,10 @@
         <v>6</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4313,7 +4313,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>86</v>
@@ -4322,10 +4322,10 @@
         <v>6</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4336,7 +4336,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>87</v>
@@ -4345,10 +4345,10 @@
         <v>6</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4359,7 +4359,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>88</v>
@@ -4368,10 +4368,10 @@
         <v>6</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4382,7 +4382,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>89</v>
@@ -4391,10 +4391,10 @@
         <v>6</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4405,7 +4405,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>90</v>
@@ -4414,10 +4414,10 @@
         <v>6</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4428,7 +4428,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>91</v>
@@ -4437,10 +4437,10 @@
         <v>6</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4451,7 +4451,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>92</v>
@@ -4460,10 +4460,10 @@
         <v>6</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4474,7 +4474,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>93</v>
@@ -4483,10 +4483,10 @@
         <v>6</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4497,7 +4497,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>94</v>
@@ -4506,10 +4506,10 @@
         <v>6</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4520,7 +4520,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>95</v>
@@ -4529,10 +4529,10 @@
         <v>6</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4543,7 +4543,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>96</v>
@@ -4552,10 +4552,10 @@
         <v>6</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4566,7 +4566,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>97</v>
@@ -4575,10 +4575,10 @@
         <v>6</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>2</v>
@@ -4598,10 +4598,10 @@
         <v>7</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4612,7 +4612,7 @@
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>3</v>
@@ -4621,10 +4621,10 @@
         <v>7</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4635,7 +4635,7 @@
         <v>3</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>4</v>
@@ -4644,10 +4644,10 @@
         <v>7</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4658,7 +4658,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>5</v>
@@ -4667,10 +4667,10 @@
         <v>7</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4681,7 +4681,7 @@
         <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>6</v>
@@ -4690,10 +4690,10 @@
         <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4704,7 +4704,7 @@
         <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>7</v>
@@ -4713,10 +4713,10 @@
         <v>7</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4727,7 +4727,7 @@
         <v>7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>8</v>
@@ -4736,10 +4736,10 @@
         <v>7</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4750,7 +4750,7 @@
         <v>8</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>9</v>
@@ -4759,10 +4759,10 @@
         <v>7</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4773,7 +4773,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>10</v>
@@ -4782,10 +4782,10 @@
         <v>7</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4796,7 +4796,7 @@
         <v>10</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -4805,10 +4805,10 @@
         <v>7</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4819,7 +4819,7 @@
         <v>11</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>12</v>
@@ -4828,10 +4828,10 @@
         <v>7</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4842,7 +4842,7 @@
         <v>12</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
@@ -4851,10 +4851,10 @@
         <v>7</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4865,7 +4865,7 @@
         <v>13</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
@@ -4874,10 +4874,10 @@
         <v>7</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4888,7 +4888,7 @@
         <v>14</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>15</v>
@@ -4897,10 +4897,10 @@
         <v>7</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4911,7 +4911,7 @@
         <v>15</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>16</v>
@@ -4920,10 +4920,10 @@
         <v>7</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4934,7 +4934,7 @@
         <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>17</v>
@@ -4943,10 +4943,10 @@
         <v>7</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4957,7 +4957,7 @@
         <v>17</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>18</v>
@@ -4966,10 +4966,10 @@
         <v>7</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4980,7 +4980,7 @@
         <v>18</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>19</v>
@@ -4989,10 +4989,10 @@
         <v>7</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5003,7 +5003,7 @@
         <v>19</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>20</v>
@@ -5012,10 +5012,10 @@
         <v>7</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5026,7 +5026,7 @@
         <v>20</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>21</v>
@@ -5035,10 +5035,10 @@
         <v>7</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5049,7 +5049,7 @@
         <v>21</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>22</v>
@@ -5058,10 +5058,10 @@
         <v>7</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5072,7 +5072,7 @@
         <v>22</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>23</v>
@@ -5081,10 +5081,10 @@
         <v>7</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5095,7 +5095,7 @@
         <v>23</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>24</v>
@@ -5104,10 +5104,10 @@
         <v>7</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5118,7 +5118,7 @@
         <v>24</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>25</v>
@@ -5127,10 +5127,10 @@
         <v>7</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5141,7 +5141,7 @@
         <v>25</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>26</v>
@@ -5150,10 +5150,10 @@
         <v>7</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5164,7 +5164,7 @@
         <v>26</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>27</v>
@@ -5173,10 +5173,10 @@
         <v>7</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5187,7 +5187,7 @@
         <v>27</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>28</v>
@@ -5196,10 +5196,10 @@
         <v>7</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5210,7 +5210,7 @@
         <v>28</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>29</v>
@@ -5219,10 +5219,10 @@
         <v>7</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5233,7 +5233,7 @@
         <v>29</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>30</v>
@@ -5242,10 +5242,10 @@
         <v>7</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5256,7 +5256,7 @@
         <v>30</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>31</v>
@@ -5265,10 +5265,10 @@
         <v>7</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5279,7 +5279,7 @@
         <v>31</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>32</v>
@@ -5288,10 +5288,10 @@
         <v>7</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5302,7 +5302,7 @@
         <v>32</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>33</v>
@@ -5311,10 +5311,10 @@
         <v>7</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5325,7 +5325,7 @@
         <v>33</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>34</v>
@@ -5334,10 +5334,10 @@
         <v>7</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5348,7 +5348,7 @@
         <v>34</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>35</v>
@@ -5357,10 +5357,10 @@
         <v>7</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5371,7 +5371,7 @@
         <v>35</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>36</v>
@@ -5380,10 +5380,10 @@
         <v>7</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5394,7 +5394,7 @@
         <v>36</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>37</v>
@@ -5403,10 +5403,10 @@
         <v>7</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5417,7 +5417,7 @@
         <v>37</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>38</v>
@@ -5426,10 +5426,10 @@
         <v>7</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5440,7 +5440,7 @@
         <v>38</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>39</v>
@@ -5449,10 +5449,10 @@
         <v>7</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5463,7 +5463,7 @@
         <v>39</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>40</v>
@@ -5472,10 +5472,10 @@
         <v>7</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5486,7 +5486,7 @@
         <v>40</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>41</v>
@@ -5495,10 +5495,10 @@
         <v>7</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5509,7 +5509,7 @@
         <v>41</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>42</v>
@@ -5518,10 +5518,10 @@
         <v>7</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5532,7 +5532,7 @@
         <v>42</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>43</v>
@@ -5541,10 +5541,10 @@
         <v>7</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5555,7 +5555,7 @@
         <v>43</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>44</v>
@@ -5564,10 +5564,10 @@
         <v>7</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5578,7 +5578,7 @@
         <v>44</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>45</v>
@@ -5587,10 +5587,10 @@
         <v>7</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5601,7 +5601,7 @@
         <v>45</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>46</v>
@@ -5610,10 +5610,10 @@
         <v>7</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5624,7 +5624,7 @@
         <v>46</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>47</v>
@@ -5633,10 +5633,10 @@
         <v>7</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5647,7 +5647,7 @@
         <v>47</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>48</v>
@@ -5656,10 +5656,10 @@
         <v>7</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5670,7 +5670,7 @@
         <v>48</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>49</v>
@@ -5679,10 +5679,10 @@
         <v>7</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5693,7 +5693,7 @@
         <v>49</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>160</v>
+        <v>632</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>50</v>
@@ -5702,10 +5702,10 @@
         <v>7</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5716,7 +5716,7 @@
         <v>50</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>182</v>
+        <v>633</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>51</v>
@@ -5725,10 +5725,10 @@
         <v>7</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5739,7 +5739,7 @@
         <v>51</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>204</v>
+        <v>634</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>52</v>
@@ -5748,10 +5748,10 @@
         <v>7</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5762,7 +5762,7 @@
         <v>52</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>225</v>
+        <v>635</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>53</v>
@@ -5771,10 +5771,10 @@
         <v>7</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5785,7 +5785,7 @@
         <v>53</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>247</v>
+        <v>636</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>54</v>
@@ -5794,10 +5794,10 @@
         <v>7</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5808,7 +5808,7 @@
         <v>54</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>269</v>
+        <v>637</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>55</v>
@@ -5817,10 +5817,10 @@
         <v>7</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5831,7 +5831,7 @@
         <v>55</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>291</v>
+        <v>638</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>56</v>
@@ -5840,10 +5840,10 @@
         <v>7</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5854,7 +5854,7 @@
         <v>56</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>313</v>
+        <v>639</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>57</v>
@@ -5863,10 +5863,10 @@
         <v>7</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5877,7 +5877,7 @@
         <v>57</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>58</v>
@@ -5886,10 +5886,10 @@
         <v>7</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5900,7 +5900,7 @@
         <v>58</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>59</v>
@@ -5909,10 +5909,10 @@
         <v>7</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5923,7 +5923,7 @@
         <v>59</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>60</v>
@@ -5932,10 +5932,10 @@
         <v>7</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5946,7 +5946,7 @@
         <v>60</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>61</v>
@@ -5955,10 +5955,10 @@
         <v>7</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5969,7 +5969,7 @@
         <v>61</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>62</v>
@@ -5978,10 +5978,10 @@
         <v>7</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5992,7 +5992,7 @@
         <v>62</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>63</v>
@@ -6001,10 +6001,10 @@
         <v>7</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -6015,7 +6015,7 @@
         <v>63</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>64</v>
@@ -6024,10 +6024,10 @@
         <v>7</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -6038,7 +6038,7 @@
         <v>64</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>65</v>
@@ -6047,10 +6047,10 @@
         <v>7</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -6061,7 +6061,7 @@
         <v>65</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>66</v>
@@ -6070,10 +6070,10 @@
         <v>7</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6084,7 +6084,7 @@
         <v>66</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>67</v>
@@ -6093,10 +6093,10 @@
         <v>7</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -6107,7 +6107,7 @@
         <v>67</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>68</v>
@@ -6116,10 +6116,10 @@
         <v>7</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -6130,7 +6130,7 @@
         <v>68</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>69</v>
@@ -6139,10 +6139,10 @@
         <v>7</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -6153,7 +6153,7 @@
         <v>69</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>70</v>
@@ -6162,10 +6162,10 @@
         <v>7</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6176,7 +6176,7 @@
         <v>70</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>71</v>
@@ -6185,10 +6185,10 @@
         <v>7</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6199,7 +6199,7 @@
         <v>71</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>72</v>
@@ -6208,10 +6208,10 @@
         <v>7</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -6222,7 +6222,7 @@
         <v>72</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>73</v>
@@ -6231,10 +6231,10 @@
         <v>7</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -6245,7 +6245,7 @@
         <v>73</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>74</v>
@@ -6254,10 +6254,10 @@
         <v>7</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6268,7 +6268,7 @@
         <v>74</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>75</v>
@@ -6277,10 +6277,10 @@
         <v>7</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6291,7 +6291,7 @@
         <v>75</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>76</v>
@@ -6300,10 +6300,10 @@
         <v>7</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6314,7 +6314,7 @@
         <v>76</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>77</v>
@@ -6323,10 +6323,10 @@
         <v>7</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6337,7 +6337,7 @@
         <v>77</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>78</v>
@@ -6346,10 +6346,10 @@
         <v>7</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6360,7 +6360,7 @@
         <v>78</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>79</v>
@@ -6369,10 +6369,10 @@
         <v>7</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6383,7 +6383,7 @@
         <v>79</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>80</v>
@@ -6392,10 +6392,10 @@
         <v>7</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6406,7 +6406,7 @@
         <v>80</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>81</v>
@@ -6415,10 +6415,10 @@
         <v>7</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6429,7 +6429,7 @@
         <v>81</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>82</v>
@@ -6438,10 +6438,10 @@
         <v>7</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6452,7 +6452,7 @@
         <v>82</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>83</v>
@@ -6461,10 +6461,10 @@
         <v>7</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6475,7 +6475,7 @@
         <v>83</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>84</v>
@@ -6484,10 +6484,10 @@
         <v>7</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -6498,7 +6498,7 @@
         <v>84</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>85</v>
@@ -6507,10 +6507,10 @@
         <v>7</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6521,7 +6521,7 @@
         <v>85</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>86</v>
@@ -6530,10 +6530,10 @@
         <v>7</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6544,7 +6544,7 @@
         <v>86</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>87</v>
@@ -6553,10 +6553,10 @@
         <v>7</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6567,7 +6567,7 @@
         <v>87</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>88</v>
@@ -6576,10 +6576,10 @@
         <v>7</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6590,7 +6590,7 @@
         <v>88</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>89</v>
@@ -6599,10 +6599,10 @@
         <v>7</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6613,7 +6613,7 @@
         <v>89</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>90</v>
@@ -6622,10 +6622,10 @@
         <v>7</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6636,7 +6636,7 @@
         <v>90</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>91</v>
@@ -6645,10 +6645,10 @@
         <v>7</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6659,7 +6659,7 @@
         <v>91</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>92</v>
@@ -6668,10 +6668,10 @@
         <v>7</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6682,7 +6682,7 @@
         <v>92</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>93</v>
@@ -6691,10 +6691,10 @@
         <v>7</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6705,7 +6705,7 @@
         <v>93</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>94</v>
@@ -6714,10 +6714,10 @@
         <v>7</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6728,7 +6728,7 @@
         <v>94</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>95</v>
@@ -6737,10 +6737,10 @@
         <v>7</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6751,7 +6751,7 @@
         <v>95</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>96</v>
@@ -6760,10 +6760,10 @@
         <v>7</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6774,7 +6774,7 @@
         <v>96</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>97</v>
@@ -6783,10 +6783,10 @@
         <v>7</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6797,7 +6797,7 @@
         <v>1</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>2</v>
@@ -6806,10 +6806,10 @@
         <v>8</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6820,7 +6820,7 @@
         <v>2</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>3</v>
@@ -6829,10 +6829,10 @@
         <v>8</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6843,7 +6843,7 @@
         <v>3</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>4</v>
@@ -6852,10 +6852,10 @@
         <v>8</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6866,7 +6866,7 @@
         <v>4</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>5</v>
@@ -6875,10 +6875,10 @@
         <v>8</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6889,7 +6889,7 @@
         <v>5</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>6</v>
@@ -6898,10 +6898,10 @@
         <v>8</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6912,7 +6912,7 @@
         <v>6</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>7</v>
@@ -6921,10 +6921,10 @@
         <v>8</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6935,7 +6935,7 @@
         <v>7</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>8</v>
@@ -6944,10 +6944,10 @@
         <v>8</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6958,7 +6958,7 @@
         <v>8</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>9</v>
@@ -6967,10 +6967,10 @@
         <v>8</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6981,7 +6981,7 @@
         <v>9</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>10</v>
@@ -6990,10 +6990,10 @@
         <v>8</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -7004,7 +7004,7 @@
         <v>10</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>11</v>
@@ -7013,10 +7013,10 @@
         <v>8</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -7027,7 +7027,7 @@
         <v>11</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>12</v>
@@ -7036,10 +7036,10 @@
         <v>8</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -7050,7 +7050,7 @@
         <v>12</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>13</v>
@@ -7059,10 +7059,10 @@
         <v>8</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -7073,7 +7073,7 @@
         <v>13</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>14</v>
@@ -7082,10 +7082,10 @@
         <v>8</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -7096,7 +7096,7 @@
         <v>14</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>15</v>
@@ -7105,10 +7105,10 @@
         <v>8</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -7119,7 +7119,7 @@
         <v>15</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>16</v>
@@ -7128,10 +7128,10 @@
         <v>8</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -7142,7 +7142,7 @@
         <v>16</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>17</v>
@@ -7151,10 +7151,10 @@
         <v>8</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -7165,7 +7165,7 @@
         <v>17</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>18</v>
@@ -7174,10 +7174,10 @@
         <v>8</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -7188,7 +7188,7 @@
         <v>18</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>19</v>
@@ -7197,10 +7197,10 @@
         <v>8</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -7211,7 +7211,7 @@
         <v>19</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>20</v>
@@ -7220,10 +7220,10 @@
         <v>8</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -7234,7 +7234,7 @@
         <v>20</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>21</v>
@@ -7243,10 +7243,10 @@
         <v>8</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -7257,7 +7257,7 @@
         <v>21</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>22</v>
@@ -7266,10 +7266,10 @@
         <v>8</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7280,7 +7280,7 @@
         <v>22</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>23</v>
@@ -7289,10 +7289,10 @@
         <v>8</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -7303,7 +7303,7 @@
         <v>23</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>24</v>
@@ -7312,10 +7312,10 @@
         <v>8</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7326,7 +7326,7 @@
         <v>24</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>25</v>
@@ -7335,10 +7335,10 @@
         <v>8</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7349,7 +7349,7 @@
         <v>25</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>26</v>
@@ -7358,10 +7358,10 @@
         <v>8</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7372,7 +7372,7 @@
         <v>26</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>27</v>
@@ -7381,10 +7381,10 @@
         <v>8</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7395,7 +7395,7 @@
         <v>27</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>28</v>
@@ -7404,10 +7404,10 @@
         <v>8</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7418,7 +7418,7 @@
         <v>28</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>29</v>
@@ -7427,10 +7427,10 @@
         <v>8</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7441,7 +7441,7 @@
         <v>29</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>30</v>
@@ -7450,10 +7450,10 @@
         <v>8</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7464,7 +7464,7 @@
         <v>30</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>31</v>
@@ -7473,10 +7473,10 @@
         <v>8</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7487,7 +7487,7 @@
         <v>31</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>32</v>
@@ -7496,10 +7496,10 @@
         <v>8</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7510,7 +7510,7 @@
         <v>32</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>33</v>
@@ -7519,10 +7519,10 @@
         <v>8</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7533,7 +7533,7 @@
         <v>33</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>34</v>
@@ -7542,10 +7542,10 @@
         <v>8</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7556,7 +7556,7 @@
         <v>34</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>35</v>
@@ -7565,10 +7565,10 @@
         <v>8</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7579,7 +7579,7 @@
         <v>35</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>36</v>
@@ -7588,10 +7588,10 @@
         <v>8</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7602,7 +7602,7 @@
         <v>36</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>37</v>
@@ -7611,10 +7611,10 @@
         <v>8</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7625,7 +7625,7 @@
         <v>37</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>38</v>
@@ -7634,10 +7634,10 @@
         <v>8</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7648,7 +7648,7 @@
         <v>38</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>39</v>
@@ -7657,10 +7657,10 @@
         <v>8</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7671,7 +7671,7 @@
         <v>39</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>40</v>
@@ -7680,10 +7680,10 @@
         <v>8</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7694,7 +7694,7 @@
         <v>40</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>41</v>
@@ -7703,10 +7703,10 @@
         <v>8</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7717,7 +7717,7 @@
         <v>41</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>42</v>
@@ -7726,10 +7726,10 @@
         <v>8</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7740,7 +7740,7 @@
         <v>42</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>43</v>
@@ -7749,10 +7749,10 @@
         <v>8</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7763,7 +7763,7 @@
         <v>43</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>44</v>
@@ -7772,10 +7772,10 @@
         <v>8</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7786,7 +7786,7 @@
         <v>44</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>45</v>
@@ -7795,10 +7795,10 @@
         <v>8</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7809,7 +7809,7 @@
         <v>45</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>46</v>
@@ -7818,10 +7818,10 @@
         <v>8</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7832,7 +7832,7 @@
         <v>46</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>47</v>
@@ -7841,10 +7841,10 @@
         <v>8</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7855,7 +7855,7 @@
         <v>47</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>48</v>
@@ -7864,10 +7864,10 @@
         <v>8</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7878,7 +7878,7 @@
         <v>48</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>49</v>
@@ -7887,10 +7887,10 @@
         <v>8</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7901,7 +7901,7 @@
         <v>49</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>50</v>
@@ -7910,10 +7910,10 @@
         <v>8</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7924,7 +7924,7 @@
         <v>50</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>51</v>
@@ -7933,10 +7933,10 @@
         <v>8</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7947,7 +7947,7 @@
         <v>51</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>52</v>
@@ -7956,10 +7956,10 @@
         <v>8</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7970,7 +7970,7 @@
         <v>52</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>53</v>
@@ -7979,10 +7979,10 @@
         <v>8</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7993,7 +7993,7 @@
         <v>53</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>54</v>
@@ -8002,10 +8002,10 @@
         <v>8</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -8016,7 +8016,7 @@
         <v>54</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>55</v>
@@ -8025,10 +8025,10 @@
         <v>8</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -8039,7 +8039,7 @@
         <v>55</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>56</v>
@@ -8048,10 +8048,10 @@
         <v>8</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -8062,7 +8062,7 @@
         <v>56</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>57</v>
@@ -8071,10 +8071,10 @@
         <v>8</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -8085,7 +8085,7 @@
         <v>57</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>58</v>
@@ -8094,10 +8094,10 @@
         <v>8</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -8108,7 +8108,7 @@
         <v>58</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>59</v>
@@ -8117,10 +8117,10 @@
         <v>8</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -8131,7 +8131,7 @@
         <v>59</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>60</v>
@@ -8140,10 +8140,10 @@
         <v>8</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -8154,7 +8154,7 @@
         <v>60</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>61</v>
@@ -8163,10 +8163,10 @@
         <v>8</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -8177,7 +8177,7 @@
         <v>61</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>62</v>
@@ -8186,10 +8186,10 @@
         <v>8</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -8200,7 +8200,7 @@
         <v>62</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>63</v>
@@ -8209,10 +8209,10 @@
         <v>8</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -8223,7 +8223,7 @@
         <v>63</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>64</v>
@@ -8232,10 +8232,10 @@
         <v>8</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -8246,7 +8246,7 @@
         <v>64</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>65</v>
@@ -8255,10 +8255,10 @@
         <v>8</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -8269,7 +8269,7 @@
         <v>65</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>66</v>
@@ -8278,10 +8278,10 @@
         <v>8</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -8292,7 +8292,7 @@
         <v>66</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>67</v>
@@ -8301,10 +8301,10 @@
         <v>8</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -8315,7 +8315,7 @@
         <v>67</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>68</v>
@@ -8324,10 +8324,10 @@
         <v>8</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -8338,7 +8338,7 @@
         <v>68</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>69</v>
@@ -8347,10 +8347,10 @@
         <v>8</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -8361,7 +8361,7 @@
         <v>69</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>70</v>
@@ -8370,10 +8370,10 @@
         <v>8</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -8384,7 +8384,7 @@
         <v>70</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>71</v>
@@ -8393,10 +8393,10 @@
         <v>8</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -8407,7 +8407,7 @@
         <v>71</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>72</v>
@@ -8416,10 +8416,10 @@
         <v>8</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -8430,7 +8430,7 @@
         <v>72</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>73</v>
@@ -8439,10 +8439,10 @@
         <v>8</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -8453,7 +8453,7 @@
         <v>73</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>74</v>
@@ -8462,10 +8462,10 @@
         <v>8</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -8476,7 +8476,7 @@
         <v>74</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>75</v>
@@ -8485,10 +8485,10 @@
         <v>8</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -8499,7 +8499,7 @@
         <v>75</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>76</v>
@@ -8508,10 +8508,10 @@
         <v>8</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -8522,7 +8522,7 @@
         <v>76</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>77</v>
@@ -8531,10 +8531,10 @@
         <v>8</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -8545,7 +8545,7 @@
         <v>77</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>78</v>
@@ -8554,10 +8554,10 @@
         <v>8</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -8568,7 +8568,7 @@
         <v>78</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>79</v>
@@ -8577,10 +8577,10 @@
         <v>8</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -8591,7 +8591,7 @@
         <v>79</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>80</v>
@@ -8600,10 +8600,10 @@
         <v>8</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -8614,7 +8614,7 @@
         <v>80</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>81</v>
@@ -8623,10 +8623,10 @@
         <v>8</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -8637,7 +8637,7 @@
         <v>81</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>82</v>
@@ -8646,10 +8646,10 @@
         <v>8</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8660,7 +8660,7 @@
         <v>82</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>83</v>
@@ -8669,10 +8669,10 @@
         <v>8</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -8683,7 +8683,7 @@
         <v>83</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>84</v>
@@ -8692,10 +8692,10 @@
         <v>8</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -8706,7 +8706,7 @@
         <v>84</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>85</v>
@@ -8715,10 +8715,10 @@
         <v>8</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -8729,7 +8729,7 @@
         <v>85</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>86</v>
@@ -8738,10 +8738,10 @@
         <v>8</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8752,7 +8752,7 @@
         <v>86</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>87</v>
@@ -8761,10 +8761,10 @@
         <v>8</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -8775,7 +8775,7 @@
         <v>87</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>88</v>
@@ -8784,10 +8784,10 @@
         <v>8</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -8798,7 +8798,7 @@
         <v>88</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>89</v>
@@ -8807,10 +8807,10 @@
         <v>8</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -8821,7 +8821,7 @@
         <v>89</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>90</v>
@@ -8830,10 +8830,10 @@
         <v>8</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8844,7 +8844,7 @@
         <v>90</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>91</v>
@@ -8853,10 +8853,10 @@
         <v>8</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8867,7 +8867,7 @@
         <v>91</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>92</v>
@@ -8876,10 +8876,10 @@
         <v>8</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8890,7 +8890,7 @@
         <v>92</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>93</v>
@@ -8899,10 +8899,10 @@
         <v>8</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8913,7 +8913,7 @@
         <v>93</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>94</v>
@@ -8922,10 +8922,10 @@
         <v>8</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8936,7 +8936,7 @@
         <v>94</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>95</v>
@@ -8945,10 +8945,10 @@
         <v>8</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8959,7 +8959,7 @@
         <v>95</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>96</v>
@@ -8968,10 +8968,10 @@
         <v>8</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8982,7 +8982,7 @@
         <v>96</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>97</v>
@@ -8991,10 +8991,10 @@
         <v>8</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -9005,7 +9005,7 @@
         <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>2</v>
@@ -9014,10 +9014,10 @@
         <v>9</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -9028,7 +9028,7 @@
         <v>2</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>3</v>
@@ -9037,10 +9037,10 @@
         <v>9</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -9051,7 +9051,7 @@
         <v>3</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>4</v>
@@ -9060,10 +9060,10 @@
         <v>9</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -9074,7 +9074,7 @@
         <v>4</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>5</v>
@@ -9083,10 +9083,10 @@
         <v>9</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -9097,7 +9097,7 @@
         <v>5</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>6</v>
@@ -9106,10 +9106,10 @@
         <v>9</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -9120,7 +9120,7 @@
         <v>6</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>7</v>
@@ -9129,10 +9129,10 @@
         <v>9</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -9143,7 +9143,7 @@
         <v>7</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>8</v>
@@ -9152,10 +9152,10 @@
         <v>9</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -9166,7 +9166,7 @@
         <v>8</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>9</v>
@@ -9175,10 +9175,10 @@
         <v>9</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -9189,7 +9189,7 @@
         <v>9</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>10</v>
@@ -9198,10 +9198,10 @@
         <v>9</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -9212,7 +9212,7 @@
         <v>10</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>11</v>
@@ -9221,10 +9221,10 @@
         <v>9</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -9235,7 +9235,7 @@
         <v>11</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>12</v>
@@ -9244,10 +9244,10 @@
         <v>9</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -9258,7 +9258,7 @@
         <v>12</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>13</v>
@@ -9267,10 +9267,10 @@
         <v>9</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -9281,7 +9281,7 @@
         <v>13</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>14</v>
@@ -9290,10 +9290,10 @@
         <v>9</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -9304,7 +9304,7 @@
         <v>14</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>15</v>
@@ -9313,10 +9313,10 @@
         <v>9</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -9327,7 +9327,7 @@
         <v>15</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>16</v>
@@ -9336,10 +9336,10 @@
         <v>9</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -9350,7 +9350,7 @@
         <v>16</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>17</v>
@@ -9359,10 +9359,10 @@
         <v>9</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -9373,7 +9373,7 @@
         <v>17</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>18</v>
@@ -9382,10 +9382,10 @@
         <v>9</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -9396,7 +9396,7 @@
         <v>18</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>19</v>
@@ -9405,10 +9405,10 @@
         <v>9</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -9419,7 +9419,7 @@
         <v>19</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>20</v>
@@ -9428,10 +9428,10 @@
         <v>9</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -9442,7 +9442,7 @@
         <v>20</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>21</v>
@@ -9451,10 +9451,10 @@
         <v>9</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -9465,7 +9465,7 @@
         <v>21</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>22</v>
@@ -9474,10 +9474,10 @@
         <v>9</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -9488,7 +9488,7 @@
         <v>22</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>23</v>
@@ -9497,10 +9497,10 @@
         <v>9</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -9511,7 +9511,7 @@
         <v>23</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>24</v>
@@ -9520,10 +9520,10 @@
         <v>9</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -9534,7 +9534,7 @@
         <v>24</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>25</v>
@@ -9543,10 +9543,10 @@
         <v>9</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -9557,7 +9557,7 @@
         <v>25</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>26</v>
@@ -9566,10 +9566,10 @@
         <v>9</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -9580,7 +9580,7 @@
         <v>26</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>27</v>
@@ -9589,10 +9589,10 @@
         <v>9</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -9603,7 +9603,7 @@
         <v>27</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>28</v>
@@ -9612,10 +9612,10 @@
         <v>9</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -9626,7 +9626,7 @@
         <v>28</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>29</v>
@@ -9635,10 +9635,10 @@
         <v>9</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -9649,7 +9649,7 @@
         <v>29</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>30</v>
@@ -9658,10 +9658,10 @@
         <v>9</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -9672,7 +9672,7 @@
         <v>30</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>31</v>
@@ -9681,10 +9681,10 @@
         <v>9</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -9695,7 +9695,7 @@
         <v>31</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>32</v>
@@ -9704,10 +9704,10 @@
         <v>9</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -9718,7 +9718,7 @@
         <v>32</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>33</v>
@@ -9727,10 +9727,10 @@
         <v>9</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -9741,7 +9741,7 @@
         <v>33</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>34</v>
@@ -9750,10 +9750,10 @@
         <v>9</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -9764,7 +9764,7 @@
         <v>34</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>35</v>
@@ -9773,10 +9773,10 @@
         <v>9</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -9787,7 +9787,7 @@
         <v>35</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>36</v>
@@ -9796,10 +9796,10 @@
         <v>9</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -9810,7 +9810,7 @@
         <v>36</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>37</v>
@@ -9819,10 +9819,10 @@
         <v>9</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -9833,7 +9833,7 @@
         <v>37</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>38</v>
@@ -9842,10 +9842,10 @@
         <v>9</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -9856,7 +9856,7 @@
         <v>38</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>39</v>
@@ -9865,10 +9865,10 @@
         <v>9</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -9879,7 +9879,7 @@
         <v>39</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>40</v>
@@ -9888,10 +9888,10 @@
         <v>9</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -9902,7 +9902,7 @@
         <v>40</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>41</v>
@@ -9911,10 +9911,10 @@
         <v>9</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -9925,7 +9925,7 @@
         <v>41</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>42</v>
@@ -9934,10 +9934,10 @@
         <v>9</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -9948,7 +9948,7 @@
         <v>42</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>43</v>
@@ -9957,10 +9957,10 @@
         <v>9</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -9971,7 +9971,7 @@
         <v>43</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>44</v>
@@ -9980,10 +9980,10 @@
         <v>9</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -9994,7 +9994,7 @@
         <v>44</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>45</v>
@@ -10003,10 +10003,10 @@
         <v>9</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -10017,7 +10017,7 @@
         <v>45</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>46</v>
@@ -10026,10 +10026,10 @@
         <v>9</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -10040,7 +10040,7 @@
         <v>46</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>47</v>
@@ -10049,10 +10049,10 @@
         <v>9</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -10063,7 +10063,7 @@
         <v>47</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>48</v>
@@ -10072,10 +10072,10 @@
         <v>9</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -10086,7 +10086,7 @@
         <v>48</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>49</v>
@@ -10095,10 +10095,10 @@
         <v>9</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -10109,7 +10109,7 @@
         <v>49</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>50</v>
@@ -10118,10 +10118,10 @@
         <v>9</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -10132,7 +10132,7 @@
         <v>50</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>51</v>
@@ -10141,10 +10141,10 @@
         <v>9</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -10155,7 +10155,7 @@
         <v>51</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>52</v>
@@ -10164,10 +10164,10 @@
         <v>9</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -10178,7 +10178,7 @@
         <v>52</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>53</v>
@@ -10187,10 +10187,10 @@
         <v>9</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -10201,7 +10201,7 @@
         <v>53</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>54</v>
@@ -10210,10 +10210,10 @@
         <v>9</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -10224,7 +10224,7 @@
         <v>54</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>55</v>
@@ -10233,10 +10233,10 @@
         <v>9</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -10247,7 +10247,7 @@
         <v>55</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>56</v>
@@ -10256,10 +10256,10 @@
         <v>9</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -10270,7 +10270,7 @@
         <v>56</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>57</v>
@@ -10279,10 +10279,10 @@
         <v>9</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -10293,7 +10293,7 @@
         <v>57</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>58</v>
@@ -10302,10 +10302,10 @@
         <v>9</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -10316,7 +10316,7 @@
         <v>58</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>59</v>
@@ -10325,10 +10325,10 @@
         <v>9</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -10339,7 +10339,7 @@
         <v>59</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>60</v>
@@ -10348,10 +10348,10 @@
         <v>9</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -10362,7 +10362,7 @@
         <v>60</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>61</v>
@@ -10371,10 +10371,10 @@
         <v>9</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -10385,7 +10385,7 @@
         <v>61</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>62</v>
@@ -10394,10 +10394,10 @@
         <v>9</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -10408,7 +10408,7 @@
         <v>62</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>63</v>
@@ -10417,10 +10417,10 @@
         <v>9</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -10431,7 +10431,7 @@
         <v>63</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>64</v>
@@ -10440,10 +10440,10 @@
         <v>9</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -10454,7 +10454,7 @@
         <v>64</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>65</v>
@@ -10463,10 +10463,10 @@
         <v>9</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -10477,7 +10477,7 @@
         <v>65</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>66</v>
@@ -10486,10 +10486,10 @@
         <v>9</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -10500,7 +10500,7 @@
         <v>66</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>67</v>
@@ -10509,10 +10509,10 @@
         <v>9</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -10523,7 +10523,7 @@
         <v>67</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>68</v>
@@ -10532,10 +10532,10 @@
         <v>9</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -10546,7 +10546,7 @@
         <v>68</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>69</v>
@@ -10555,10 +10555,10 @@
         <v>9</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -10569,7 +10569,7 @@
         <v>69</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>70</v>
@@ -10578,10 +10578,10 @@
         <v>9</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -10592,7 +10592,7 @@
         <v>70</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>71</v>
@@ -10601,10 +10601,10 @@
         <v>9</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -10615,7 +10615,7 @@
         <v>71</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>72</v>
@@ -10624,10 +10624,10 @@
         <v>9</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -10638,7 +10638,7 @@
         <v>72</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>73</v>
@@ -10647,10 +10647,10 @@
         <v>9</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -10661,7 +10661,7 @@
         <v>73</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>74</v>
@@ -10670,10 +10670,10 @@
         <v>9</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -10684,7 +10684,7 @@
         <v>74</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>75</v>
@@ -10693,10 +10693,10 @@
         <v>9</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -10707,7 +10707,7 @@
         <v>75</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>76</v>
@@ -10716,10 +10716,10 @@
         <v>9</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -10730,7 +10730,7 @@
         <v>76</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>77</v>
@@ -10739,10 +10739,10 @@
         <v>9</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -10753,7 +10753,7 @@
         <v>77</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>78</v>
@@ -10762,10 +10762,10 @@
         <v>9</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -10776,7 +10776,7 @@
         <v>78</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>79</v>
@@ -10785,10 +10785,10 @@
         <v>9</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -10799,7 +10799,7 @@
         <v>79</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>80</v>
@@ -10808,10 +10808,10 @@
         <v>9</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -10822,7 +10822,7 @@
         <v>80</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>81</v>
@@ -10831,10 +10831,10 @@
         <v>9</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -10845,7 +10845,7 @@
         <v>81</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>82</v>
@@ -10854,10 +10854,10 @@
         <v>9</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -10868,7 +10868,7 @@
         <v>82</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>83</v>
@@ -10877,10 +10877,10 @@
         <v>9</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -10891,7 +10891,7 @@
         <v>83</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>84</v>
@@ -10900,10 +10900,10 @@
         <v>9</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -10914,7 +10914,7 @@
         <v>84</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>85</v>
@@ -10923,10 +10923,10 @@
         <v>9</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -10937,7 +10937,7 @@
         <v>85</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>86</v>
@@ -10946,10 +10946,10 @@
         <v>9</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -10960,7 +10960,7 @@
         <v>86</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>87</v>
@@ -10969,10 +10969,10 @@
         <v>9</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -10983,7 +10983,7 @@
         <v>87</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>88</v>
@@ -10992,10 +10992,10 @@
         <v>9</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -11006,7 +11006,7 @@
         <v>88</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>89</v>
@@ -11015,10 +11015,10 @@
         <v>9</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -11029,7 +11029,7 @@
         <v>89</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>90</v>
@@ -11038,10 +11038,10 @@
         <v>9</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -11052,7 +11052,7 @@
         <v>90</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>91</v>
@@ -11061,10 +11061,10 @@
         <v>9</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -11075,7 +11075,7 @@
         <v>91</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>92</v>
@@ -11084,10 +11084,10 @@
         <v>9</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -11098,7 +11098,7 @@
         <v>92</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>93</v>
@@ -11107,10 +11107,10 @@
         <v>9</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -11121,7 +11121,7 @@
         <v>93</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>94</v>
@@ -11130,10 +11130,10 @@
         <v>9</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -11144,7 +11144,7 @@
         <v>94</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>95</v>
@@ -11153,10 +11153,10 @@
         <v>9</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -11167,7 +11167,7 @@
         <v>95</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>96</v>
@@ -11176,10 +11176,10 @@
         <v>9</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -11190,7 +11190,7 @@
         <v>96</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>97</v>
@@ -11199,10 +11199,10 @@
         <v>9</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -11213,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>2</v>
@@ -11222,10 +11222,10 @@
         <v>10</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -11245,10 +11245,10 @@
         <v>10</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -11259,7 +11259,7 @@
         <v>3</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>99</v>
+        <v>626</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>4</v>
@@ -11268,10 +11268,10 @@
         <v>10</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -11282,7 +11282,7 @@
         <v>4</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>100</v>
+        <v>627</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>5</v>
@@ -11291,10 +11291,10 @@
         <v>10</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -11305,7 +11305,7 @@
         <v>5</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>101</v>
+        <v>628</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>6</v>
@@ -11314,10 +11314,10 @@
         <v>10</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -11328,7 +11328,7 @@
         <v>6</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>102</v>
+        <v>629</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>7</v>
@@ -11337,10 +11337,10 @@
         <v>10</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -11351,7 +11351,7 @@
         <v>7</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>103</v>
+        <v>630</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>8</v>
@@ -11360,10 +11360,10 @@
         <v>10</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -11374,7 +11374,7 @@
         <v>8</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>104</v>
+        <v>631</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>9</v>
@@ -11383,10 +11383,10 @@
         <v>10</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -11397,7 +11397,7 @@
         <v>9</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>10</v>
@@ -11406,10 +11406,10 @@
         <v>10</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -11420,7 +11420,7 @@
         <v>10</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>11</v>
@@ -11429,10 +11429,10 @@
         <v>10</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -11443,7 +11443,7 @@
         <v>11</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>12</v>
@@ -11452,10 +11452,10 @@
         <v>10</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -11466,7 +11466,7 @@
         <v>12</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>13</v>
@@ -11475,10 +11475,10 @@
         <v>10</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -11489,7 +11489,7 @@
         <v>13</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>14</v>
@@ -11498,10 +11498,10 @@
         <v>10</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -11512,7 +11512,7 @@
         <v>14</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>15</v>
@@ -11521,10 +11521,10 @@
         <v>10</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -11535,7 +11535,7 @@
         <v>15</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>16</v>
@@ -11544,10 +11544,10 @@
         <v>10</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -11558,7 +11558,7 @@
         <v>16</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>17</v>
@@ -11567,10 +11567,10 @@
         <v>10</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -11581,7 +11581,7 @@
         <v>17</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>18</v>
@@ -11590,10 +11590,10 @@
         <v>10</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -11604,7 +11604,7 @@
         <v>18</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>19</v>
@@ -11613,10 +11613,10 @@
         <v>10</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -11627,7 +11627,7 @@
         <v>19</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>20</v>
@@ -11636,10 +11636,10 @@
         <v>10</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -11650,7 +11650,7 @@
         <v>20</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>21</v>
@@ -11659,10 +11659,10 @@
         <v>10</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -11673,7 +11673,7 @@
         <v>21</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>22</v>
@@ -11682,10 +11682,10 @@
         <v>10</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -11696,7 +11696,7 @@
         <v>22</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>23</v>
@@ -11705,10 +11705,10 @@
         <v>10</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -11719,7 +11719,7 @@
         <v>23</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>24</v>
@@ -11728,10 +11728,10 @@
         <v>10</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -11742,7 +11742,7 @@
         <v>24</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>25</v>
@@ -11751,10 +11751,10 @@
         <v>10</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -11765,7 +11765,7 @@
         <v>25</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>26</v>
@@ -11774,10 +11774,10 @@
         <v>10</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -11788,7 +11788,7 @@
         <v>26</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>27</v>
@@ -11797,10 +11797,10 @@
         <v>10</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -11811,7 +11811,7 @@
         <v>27</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>28</v>
@@ -11820,10 +11820,10 @@
         <v>10</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -11834,7 +11834,7 @@
         <v>28</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>29</v>
@@ -11843,10 +11843,10 @@
         <v>10</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -11857,7 +11857,7 @@
         <v>29</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>30</v>
@@ -11866,10 +11866,10 @@
         <v>10</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G414" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -11880,7 +11880,7 @@
         <v>30</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>31</v>
@@ -11889,10 +11889,10 @@
         <v>10</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -11903,7 +11903,7 @@
         <v>31</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>32</v>
@@ -11912,10 +11912,10 @@
         <v>10</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -11926,7 +11926,7 @@
         <v>32</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>33</v>
@@ -11935,10 +11935,10 @@
         <v>10</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -11949,7 +11949,7 @@
         <v>33</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>34</v>
@@ -11958,10 +11958,10 @@
         <v>10</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -11972,7 +11972,7 @@
         <v>34</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>35</v>
@@ -11981,10 +11981,10 @@
         <v>10</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -11995,7 +11995,7 @@
         <v>35</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>36</v>
@@ -12004,10 +12004,10 @@
         <v>10</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -12018,7 +12018,7 @@
         <v>36</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>37</v>
@@ -12027,10 +12027,10 @@
         <v>10</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -12041,7 +12041,7 @@
         <v>37</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>38</v>
@@ -12050,10 +12050,10 @@
         <v>10</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -12064,7 +12064,7 @@
         <v>38</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>39</v>
@@ -12073,10 +12073,10 @@
         <v>10</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -12087,7 +12087,7 @@
         <v>39</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>40</v>
@@ -12096,10 +12096,10 @@
         <v>10</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -12110,7 +12110,7 @@
         <v>40</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>41</v>
@@ -12119,10 +12119,10 @@
         <v>10</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -12133,7 +12133,7 @@
         <v>41</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>42</v>
@@ -12142,10 +12142,10 @@
         <v>10</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -12156,7 +12156,7 @@
         <v>42</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>43</v>
@@ -12165,10 +12165,10 @@
         <v>10</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -12179,7 +12179,7 @@
         <v>43</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>44</v>
@@ -12188,10 +12188,10 @@
         <v>10</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -12202,7 +12202,7 @@
         <v>44</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>45</v>
@@ -12211,10 +12211,10 @@
         <v>10</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -12225,7 +12225,7 @@
         <v>45</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>46</v>
@@ -12234,10 +12234,10 @@
         <v>10</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -12248,7 +12248,7 @@
         <v>46</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>47</v>
@@ -12257,10 +12257,10 @@
         <v>10</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -12271,7 +12271,7 @@
         <v>47</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>48</v>
@@ -12280,10 +12280,10 @@
         <v>10</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -12294,7 +12294,7 @@
         <v>48</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>49</v>
@@ -12303,10 +12303,10 @@
         <v>10</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -12317,7 +12317,7 @@
         <v>49</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>50</v>
@@ -12326,10 +12326,10 @@
         <v>10</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -12340,7 +12340,7 @@
         <v>50</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>51</v>
@@ -12349,10 +12349,10 @@
         <v>10</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -12363,7 +12363,7 @@
         <v>51</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>52</v>
@@ -12372,10 +12372,10 @@
         <v>10</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -12386,7 +12386,7 @@
         <v>52</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>53</v>
@@ -12395,10 +12395,10 @@
         <v>10</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
